--- a/Net Full Stack Development Program (1).xlsx
+++ b/Net Full Stack Development Program (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.Net-Full-Stack-Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CE5BD-C68D-418B-BA86-BA318748B335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31167FF8-7ECD-43AC-96C9-138E511F051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1379,6 +1379,12 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,6 +1419,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1420,15 +1435,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1493,12 +1499,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1720,8 +1720,8 @@
   </sheetPr>
   <dimension ref="A1:C996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1732,23 +1732,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
@@ -1768,16 +1768,16 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="59">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="16" t="s">
         <v>259</v>
       </c>
@@ -1786,16 +1786,16 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="60">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1813,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1833,7 +1833,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="16" t="s">
         <v>260</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="16" t="s">
         <v>77</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="16" t="s">
         <v>261</v>
       </c>
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="16" t="s">
         <v>262</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1898,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="16" t="s">
         <v>263</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1916,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -1927,7 +1927,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="20" t="s">
         <v>16</v>
       </c>
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="22" t="s">
         <v>264</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="22" t="s">
         <v>265</v>
       </c>
@@ -1954,7 +1954,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="22" t="s">
         <v>266</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="16" t="s">
         <v>8</v>
       </c>
@@ -4915,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C990"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4939,10 +4939,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -4950,92 +4950,92 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="31" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="31" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="31" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="31" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="31" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="32" t="s">
         <v>29</v>
       </c>
@@ -5046,10 +5046,10 @@
       <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -5057,127 +5057,127 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="58" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="58" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="58" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="58" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="58" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="58" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="31" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="31" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="71"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="31" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="31" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="58" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="31" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="32" t="s">
         <v>29</v>
       </c>
@@ -5188,10 +5188,10 @@
       <c r="C36" s="33"/>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -5199,113 +5199,113 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="31" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="58" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="31" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="58" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="31" t="s">
+      <c r="A40" s="78"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="58" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="31" t="s">
+      <c r="A41" s="78"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="58" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="31" t="s">
+      <c r="A42" s="78"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="76"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="78"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="58" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="76"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="78"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="58" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="76"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="31" t="s">
+      <c r="A45" s="78"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="76"/>
-      <c r="B46" s="71"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="76"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="76"/>
-      <c r="B48" s="71"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="31" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="76"/>
-      <c r="B49" s="71"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="31" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="76"/>
-      <c r="B50" s="71"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="31" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="76"/>
-      <c r="B51" s="71"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="31" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="76"/>
-      <c r="B52" s="71"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="76"/>
       <c r="C52" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="77"/>
       <c r="C53" s="32" t="s">
         <v>29</v>
       </c>
@@ -5316,10 +5316,10 @@
       <c r="C54" s="33"/>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="58" t="s">
@@ -5327,120 +5327,120 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="68"/>
-      <c r="B56" s="71"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="76"/>
       <c r="C56" s="58" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
-      <c r="B57" s="71"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="76"/>
       <c r="C57" s="58" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="68"/>
-      <c r="B58" s="71"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="76"/>
       <c r="C58" s="58" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="68"/>
-      <c r="B59" s="71"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="76"/>
       <c r="C59" s="58" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="68"/>
-      <c r="B60" s="71"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="76"/>
       <c r="C60" s="58" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="68"/>
-      <c r="B61" s="71"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="76"/>
       <c r="C61" s="58" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="68"/>
-      <c r="B62" s="71"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="76"/>
       <c r="C62" s="58" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="68"/>
-      <c r="B63" s="71"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="76"/>
       <c r="C63" s="58" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="68"/>
-      <c r="B64" s="71"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="76"/>
       <c r="C64" s="58" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="68"/>
-      <c r="B65" s="71"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="76"/>
       <c r="C65" s="58" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="68"/>
-      <c r="B66" s="71"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="76"/>
       <c r="C66" s="58" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="68"/>
-      <c r="B67" s="71"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="76"/>
       <c r="C67" s="58" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="68"/>
-      <c r="B68" s="71"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="76"/>
       <c r="C68" s="58" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="68"/>
-      <c r="B69" s="71"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="76"/>
       <c r="C69" s="58" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="68"/>
-      <c r="B70" s="71"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="76"/>
       <c r="C70" s="58" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="68"/>
-      <c r="B71" s="71"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="76"/>
       <c r="C71" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="69"/>
-      <c r="B72" s="72"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="32" t="s">
         <v>29</v>
       </c>
@@ -5451,10 +5451,10 @@
       <c r="C73" s="33"/>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -5462,57 +5462,57 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="68"/>
-      <c r="B75" s="71"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="76"/>
       <c r="C75" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="68"/>
-      <c r="B76" s="71"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="76"/>
       <c r="C76" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="68"/>
-      <c r="B77" s="71"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="76"/>
       <c r="C77" s="31" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="68"/>
-      <c r="B78" s="71"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="76"/>
       <c r="C78" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="68"/>
-      <c r="B79" s="71"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="76"/>
       <c r="C79" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="68"/>
-      <c r="B80" s="71"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="76"/>
       <c r="C80" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="68"/>
-      <c r="B81" s="71"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="76"/>
       <c r="C81" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="69"/>
-      <c r="B82" s="72"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="77"/>
       <c r="C82" s="32" t="s">
         <v>29</v>
       </c>
@@ -5523,10 +5523,10 @@
       <c r="C83" s="33"/>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="70" t="s">
+      <c r="B84" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="31" t="s">
@@ -5534,64 +5534,64 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="68"/>
-      <c r="B85" s="71"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="76"/>
       <c r="C85" s="31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="68"/>
-      <c r="B86" s="71"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="76"/>
       <c r="C86" s="31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="68"/>
-      <c r="B87" s="71"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="76"/>
       <c r="C87" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="68"/>
-      <c r="B88" s="71"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="76"/>
       <c r="C88" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="68"/>
-      <c r="B89" s="71"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="76"/>
       <c r="C89" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="68"/>
-      <c r="B90" s="71"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="76"/>
       <c r="C90" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="68"/>
-      <c r="B91" s="71"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="76"/>
       <c r="C91" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="68"/>
-      <c r="B92" s="71"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="76"/>
       <c r="C92" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="69"/>
-      <c r="B93" s="72"/>
+      <c r="A93" s="71"/>
+      <c r="B93" s="77"/>
       <c r="C93" s="32" t="s">
         <v>29</v>
       </c>
@@ -10083,18 +10083,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A55:A72"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="B55:B72"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="A17:A35"/>
     <mergeCell ref="B17:B35"/>
     <mergeCell ref="A37:A53"/>
     <mergeCell ref="B37:B53"/>
-    <mergeCell ref="A55:A72"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A84:A93"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="B84:B93"/>
-    <mergeCell ref="B55:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -10154,10 +10154,10 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -10187,8 +10187,8 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="40" t="s">
         <v>64</v>
       </c>
@@ -10216,8 +10216,8 @@
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="40" t="s">
         <v>65</v>
       </c>
@@ -10245,8 +10245,8 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="40" t="s">
         <v>66</v>
       </c>
@@ -10274,8 +10274,8 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="40" t="s">
         <v>66</v>
       </c>
@@ -10303,8 +10303,8 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="40" t="s">
         <v>67</v>
       </c>
@@ -10332,8 +10332,8 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="40" t="s">
         <v>68</v>
       </c>
@@ -10361,8 +10361,8 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="40" t="s">
         <v>32</v>
       </c>
@@ -10390,8 +10390,8 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="40" t="s">
         <v>69</v>
       </c>
@@ -10419,8 +10419,8 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="40" t="s">
         <v>70</v>
       </c>
@@ -10448,8 +10448,8 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="40" t="s">
         <v>71</v>
       </c>
@@ -10477,8 +10477,8 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="40" t="s">
         <v>72</v>
       </c>
@@ -10506,8 +10506,8 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="40" t="s">
         <v>73</v>
       </c>
@@ -10535,8 +10535,8 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="40" t="s">
         <v>74</v>
       </c>
@@ -10564,8 +10564,8 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="40" t="s">
         <v>75</v>
       </c>
@@ -10593,8 +10593,8 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="40" t="s">
         <v>28</v>
       </c>
@@ -10622,8 +10622,8 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="32" t="s">
         <v>29</v>
       </c>
@@ -10678,10 +10678,10 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="84" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -10711,8 +10711,8 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="4" t="s">
         <v>225</v>
       </c>
@@ -10740,8 +10740,8 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="79"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="4" t="s">
         <v>227</v>
       </c>
@@ -10769,8 +10769,8 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="79"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="4" t="s">
         <v>228</v>
       </c>
@@ -10798,8 +10798,8 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="4" t="s">
         <v>229</v>
       </c>
@@ -10827,8 +10827,8 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="4" t="s">
         <v>230</v>
       </c>
@@ -10856,8 +10856,8 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="4" t="s">
         <v>231</v>
       </c>
@@ -10885,8 +10885,8 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="4" t="s">
         <v>232</v>
       </c>
@@ -10914,8 +10914,8 @@
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="4" t="s">
         <v>233</v>
       </c>
@@ -10943,8 +10943,8 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="4" t="s">
         <v>234</v>
       </c>
@@ -10972,8 +10972,8 @@
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="79"/>
-      <c r="B30" s="83"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="4" t="s">
         <v>235</v>
       </c>
@@ -11001,8 +11001,8 @@
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79"/>
-      <c r="B31" s="83"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="4" t="s">
         <v>236</v>
       </c>
@@ -11030,8 +11030,8 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="79"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="4" t="s">
         <v>237</v>
       </c>
@@ -11059,8 +11059,8 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="79"/>
-      <c r="B33" s="83"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="4" t="s">
         <v>238</v>
       </c>
@@ -11088,8 +11088,8 @@
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="79"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="4" t="s">
         <v>239</v>
       </c>
@@ -11117,8 +11117,8 @@
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="4" t="s">
         <v>240</v>
       </c>
@@ -11146,8 +11146,8 @@
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="79"/>
-      <c r="B36" s="83"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="4" t="s">
         <v>241</v>
       </c>
@@ -11175,8 +11175,8 @@
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79"/>
-      <c r="B37" s="83"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="4" t="s">
         <v>242</v>
       </c>
@@ -11204,8 +11204,8 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="79"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="4" t="s">
         <v>243</v>
       </c>
@@ -11233,8 +11233,8 @@
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="79"/>
-      <c r="B39" s="83"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="4" t="s">
         <v>244</v>
       </c>
@@ -11262,8 +11262,8 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="79"/>
-      <c r="B40" s="83"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="4" t="s">
         <v>245</v>
       </c>
@@ -11291,8 +11291,8 @@
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="79"/>
-      <c r="B41" s="83"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="4" t="s">
         <v>246</v>
       </c>
@@ -11320,8 +11320,8 @@
       <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="79"/>
-      <c r="B42" s="83"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="4" t="s">
         <v>247</v>
       </c>
@@ -11349,8 +11349,8 @@
       <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="79"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="4" t="s">
         <v>248</v>
       </c>
@@ -11378,8 +11378,8 @@
       <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="79"/>
-      <c r="B44" s="83"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="4" t="s">
         <v>249</v>
       </c>
@@ -11407,8 +11407,8 @@
       <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="83"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="7" t="s">
         <v>28</v>
       </c>
@@ -11436,8 +11436,8 @@
       <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="80"/>
-      <c r="B46" s="84"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="5" t="s">
         <v>29</v>
       </c>
@@ -11492,10 +11492,10 @@
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="87" t="s">
         <v>251</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -11525,8 +11525,8 @@
       <c r="Y48" s="3"/>
     </row>
     <row r="49" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="79"/>
-      <c r="B49" s="86"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="4" t="s">
         <v>252</v>
       </c>
@@ -11554,8 +11554,8 @@
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="79"/>
-      <c r="B50" s="86"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="4" t="s">
         <v>253</v>
       </c>
@@ -11583,8 +11583,8 @@
       <c r="Y50" s="3"/>
     </row>
     <row r="51" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="79"/>
-      <c r="B51" s="86"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="4" t="s">
         <v>232</v>
       </c>
@@ -11612,8 +11612,8 @@
       <c r="Y51" s="3"/>
     </row>
     <row r="52" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="79"/>
-      <c r="B52" s="86"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="4" t="s">
         <v>254</v>
       </c>
@@ -11641,8 +11641,8 @@
       <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="79"/>
-      <c r="B53" s="86"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="4" t="s">
         <v>255</v>
       </c>
@@ -11670,8 +11670,8 @@
       <c r="Y53" s="3"/>
     </row>
     <row r="54" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="79"/>
-      <c r="B54" s="86"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="4" t="s">
         <v>256</v>
       </c>
@@ -11699,8 +11699,8 @@
       <c r="Y54" s="3"/>
     </row>
     <row r="55" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="79"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="4" t="s">
         <v>257</v>
       </c>
@@ -11728,8 +11728,8 @@
       <c r="Y55" s="3"/>
     </row>
     <row r="56" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="79"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="4" t="s">
         <v>28</v>
       </c>
@@ -11757,8 +11757,8 @@
       <c r="Y56" s="3"/>
     </row>
     <row r="57" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="80"/>
-      <c r="B57" s="87"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="89"/>
       <c r="C57" s="14" t="s">
         <v>29</v>
       </c>
@@ -35347,10 +35347,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="40" t="s">
@@ -35359,96 +35359,96 @@
       <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="40" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="40" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="40" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="40" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="32" t="s">
         <v>29</v>
       </c>
@@ -35461,10 +35461,10 @@
       <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="95" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -35473,128 +35473,128 @@
       <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="40" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="40" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="40" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="40" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="40" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="40" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="40" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="40" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="71"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="40" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="32" t="s">
         <v>29</v>
       </c>
@@ -35607,10 +35607,10 @@
       <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="99" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="44" t="s">
@@ -35619,152 +35619,152 @@
       <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="45" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="89"/>
-      <c r="B36" s="71"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="89"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="45" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="89"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="45" t="s">
         <v>106</v>
       </c>
       <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="89"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="45" t="s">
         <v>107</v>
       </c>
       <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="89"/>
-      <c r="B40" s="71"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="45" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="89"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="45" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="89"/>
-      <c r="B42" s="71"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="45" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="89"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="45" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="42"/>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="89"/>
-      <c r="B44" s="71"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="76"/>
       <c r="C44" s="45" t="s">
         <v>112</v>
       </c>
       <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="89"/>
-      <c r="B45" s="71"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="46" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="42"/>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89"/>
-      <c r="B46" s="71"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="46" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="46" t="s">
         <v>115</v>
       </c>
       <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="89"/>
-      <c r="B48" s="71"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="46" t="s">
         <v>116</v>
       </c>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="89"/>
-      <c r="B49" s="71"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="46" t="s">
         <v>117</v>
       </c>
       <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89"/>
-      <c r="B50" s="71"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="46" t="s">
         <v>118</v>
       </c>
       <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="89"/>
-      <c r="B51" s="71"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="46" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="89"/>
-      <c r="B52" s="71"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="76"/>
       <c r="C52" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="42"/>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
-      <c r="B53" s="92"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="32" t="s">
         <v>29</v>
       </c>
@@ -35777,10 +35777,10 @@
       <c r="D54" s="42"/>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="93" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="45" t="s">
@@ -35789,48 +35789,48 @@
       <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="89"/>
-      <c r="B56" s="71"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="76"/>
       <c r="C56" s="45" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="89"/>
-      <c r="B57" s="71"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="76"/>
       <c r="C57" s="45" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="42"/>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89"/>
-      <c r="B58" s="71"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="76"/>
       <c r="C58" s="46" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="42"/>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="89"/>
-      <c r="B59" s="71"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="76"/>
       <c r="C59" s="45" t="s">
         <v>124</v>
       </c>
       <c r="D59" s="42"/>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="89"/>
-      <c r="B60" s="71"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="76"/>
       <c r="C60" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="42"/>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
-      <c r="B61" s="92"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="32" t="s">
         <v>29</v>
       </c>
@@ -40316,7 +40316,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="100" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -40346,7 +40346,7 @@
       <c r="X2" s="50"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="46" t="s">
         <v>127</v>
       </c>
@@ -40374,7 +40374,7 @@
       <c r="X3" s="50"/>
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="46" t="s">
         <v>128</v>
       </c>
@@ -40402,7 +40402,7 @@
       <c r="X4" s="50"/>
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="46" t="s">
         <v>129</v>
       </c>
@@ -40430,7 +40430,7 @@
       <c r="X5" s="50"/>
     </row>
     <row r="6" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="46" t="s">
         <v>130</v>
       </c>
@@ -40458,7 +40458,7 @@
       <c r="X6" s="50"/>
     </row>
     <row r="7" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="46" t="s">
         <v>131</v>
       </c>
@@ -40486,7 +40486,7 @@
       <c r="X7" s="50"/>
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="46" t="s">
         <v>132</v>
       </c>
@@ -40514,7 +40514,7 @@
       <c r="X8" s="50"/>
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="46" t="s">
         <v>133</v>
       </c>
@@ -40542,7 +40542,7 @@
       <c r="X9" s="50"/>
     </row>
     <row r="10" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="46" t="s">
         <v>134</v>
       </c>
@@ -40570,7 +40570,7 @@
       <c r="X10" s="50"/>
     </row>
     <row r="11" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="46" t="s">
         <v>135</v>
       </c>
@@ -40598,7 +40598,7 @@
       <c r="X11" s="50"/>
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="46" t="s">
         <v>136</v>
       </c>
@@ -40626,7 +40626,7 @@
       <c r="X12" s="50"/>
     </row>
     <row r="13" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="46" t="s">
         <v>137</v>
       </c>
@@ -40654,7 +40654,7 @@
       <c r="X13" s="50"/>
     </row>
     <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="46" t="s">
         <v>138</v>
       </c>
@@ -40682,7 +40682,7 @@
       <c r="X14" s="50"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="46" t="s">
         <v>139</v>
       </c>
@@ -40710,7 +40710,7 @@
       <c r="X15" s="50"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="46" t="s">
         <v>140</v>
       </c>
@@ -40738,7 +40738,7 @@
       <c r="X16" s="50"/>
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="46" t="s">
         <v>141</v>
       </c>
@@ -40766,7 +40766,7 @@
       <c r="X17" s="50"/>
     </row>
     <row r="18" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="46" t="s">
         <v>142</v>
       </c>
@@ -40794,7 +40794,7 @@
       <c r="X18" s="50"/>
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="46" t="s">
         <v>143</v>
       </c>
@@ -40822,7 +40822,7 @@
       <c r="X19" s="50"/>
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="46" t="s">
         <v>144</v>
       </c>
@@ -40850,7 +40850,7 @@
       <c r="X20" s="50"/>
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="39" t="s">
         <v>28</v>
       </c>
@@ -40878,7 +40878,7 @@
       <c r="X21" s="50"/>
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="32" t="s">
         <v>29</v>
       </c>
@@ -40932,7 +40932,7 @@
       <c r="X23" s="50"/>
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="100" t="s">
         <v>145</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -40940,139 +40940,139 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="46" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="46" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="46" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="46" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="46" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="46" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="46" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="46" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="46" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="46" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="46" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="46" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="46" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="46" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="46" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="71"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="46" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="71"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="46" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="46" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="46" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="46" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="32" t="s">
         <v>29</v>
       </c>
@@ -41082,7 +41082,7 @@
       <c r="B48" s="55"/>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="72" t="s">
         <v>164</v>
       </c>
       <c r="B49" s="46" t="s">
@@ -41090,61 +41090,61 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="46" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
+      <c r="A51" s="76"/>
       <c r="B51" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="46" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
+      <c r="A53" s="76"/>
       <c r="B53" s="46" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="46" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
+      <c r="A55" s="76"/>
       <c r="B55" s="39" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="71"/>
+      <c r="A56" s="76"/>
       <c r="B56" s="46" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="71"/>
+      <c r="A57" s="76"/>
       <c r="B57" s="46" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="72"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="72" t="s">
         <v>165</v>
       </c>
       <c r="B59" s="56" t="s">
@@ -41152,65 +41152,65 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="46" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="71"/>
+      <c r="A61" s="76"/>
       <c r="B61" s="46" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="71"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="46" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="46" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
+      <c r="A64" s="76"/>
       <c r="B64" s="46"/>
     </row>
     <row r="65" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="71"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="56" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="71"/>
+      <c r="A66" s="76"/>
       <c r="B66" s="46" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="71"/>
+      <c r="A67" s="76"/>
       <c r="B67" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="71"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="46" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="71"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="46" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="72"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="46" t="s">
         <v>185</v>
       </c>
